--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F147D-00A3-4123-8E8F-198D38F173F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFDE095-75A7-462D-AA1D-76860C485B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="902">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4045,12 +4045,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>L'applicazione gestisce confidentialityCode = N,V</t>
-  </si>
-  <si>
-    <t>L'applicazione nel momento dell'inserimento del codice fiscale automaticamente lo trasforma in maiuscolo</t>
-  </si>
-  <si>
     <t>2024-05-28T14:18:45Z</t>
   </si>
   <si>
@@ -4078,15 +4072,6 @@
     <t>Errore semantico "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
   </si>
   <si>
-    <t>L'applicazione non permette di inserire un paziente senza indicare il sesso</t>
-  </si>
-  <si>
-    <t>E' l'applicazione che gestisce inserimento codici</t>
-  </si>
-  <si>
-    <t>L'applicazione non permette il verificarsi di questa situazione</t>
-  </si>
-  <si>
     <t>2024-05-28T15:36:14Z</t>
   </si>
   <si>
@@ -4099,9 +4084,6 @@
     <t>Errore semantico. "[ERROR-50| Il valore dell'elemento effectiveTime/high : '20240528000000+0200' deve essere maggiore o uguale di quello di effectiveTime/low : '20240528173557+0200'.]"</t>
   </si>
   <si>
-    <t>L'applicazione non gestisce tutte le parti opzionali.</t>
-  </si>
-  <si>
     <t>2024-07-08T14:51:37Z</t>
   </si>
   <si>
@@ -4205,9 +4187,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.56c23a6dcf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>L'applicazione non gestisce ID 445.</t>
   </si>
   <si>
     <t>2024-07-09T13:39:35Z</t>
@@ -6423,10 +6402,10 @@
   <dimension ref="A1:W968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D308" sqref="D308"/>
+      <selection pane="bottomRight" activeCell="K380" sqref="K380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12994,8 +12973,8 @@
       <c r="J177" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K177" s="59" t="s">
-        <v>851</v>
+      <c r="K177" s="21" t="s">
+        <v>789</v>
       </c>
       <c r="L177" s="21"/>
       <c r="M177" s="21"/>
@@ -13036,7 +13015,7 @@
         <v>780</v>
       </c>
       <c r="K178" s="21" t="s">
-        <v>852</v>
+        <v>790</v>
       </c>
       <c r="L178" s="21"/>
       <c r="M178" s="21"/>
@@ -13076,8 +13055,8 @@
       <c r="J179" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K179" s="59" t="s">
-        <v>851</v>
+      <c r="K179" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L179" s="21"/>
       <c r="M179" s="21"/>
@@ -13114,13 +13093,13 @@
         <v>45440</v>
       </c>
       <c r="G180" s="61" t="s">
+        <v>851</v>
+      </c>
+      <c r="H180" s="61" t="s">
+        <v>852</v>
+      </c>
+      <c r="I180" s="61" t="s">
         <v>853</v>
-      </c>
-      <c r="H180" s="61" t="s">
-        <v>854</v>
-      </c>
-      <c r="I180" s="61" t="s">
-        <v>855</v>
       </c>
       <c r="J180" s="21" t="s">
         <v>93</v>
@@ -13134,7 +13113,7 @@
         <v>93</v>
       </c>
       <c r="O180" s="59" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="P180" s="21" t="s">
         <v>780</v>
@@ -13146,7 +13125,7 @@
         <v>93</v>
       </c>
       <c r="S180" s="59" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="T180" s="21"/>
       <c r="U180" s="22"/>
@@ -13175,13 +13154,13 @@
         <v>45441</v>
       </c>
       <c r="G181" s="61" t="s">
+        <v>856</v>
+      </c>
+      <c r="H181" s="61" t="s">
+        <v>857</v>
+      </c>
+      <c r="I181" s="61" t="s">
         <v>858</v>
-      </c>
-      <c r="H181" s="61" t="s">
-        <v>859</v>
-      </c>
-      <c r="I181" s="61" t="s">
-        <v>860</v>
       </c>
       <c r="J181" s="21" t="s">
         <v>93</v>
@@ -13195,7 +13174,7 @@
         <v>93</v>
       </c>
       <c r="O181" s="59" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P181" s="21" t="s">
         <v>780</v>
@@ -13207,7 +13186,7 @@
         <v>93</v>
       </c>
       <c r="S181" s="59" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="T181" s="21"/>
       <c r="U181" s="22"/>
@@ -13239,8 +13218,8 @@
       <c r="J182" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K182" s="59" t="s">
-        <v>862</v>
+      <c r="K182" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L182" s="21"/>
       <c r="M182" s="21"/>
@@ -13280,8 +13259,8 @@
       <c r="J183" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K183" s="59" t="s">
-        <v>863</v>
+      <c r="K183" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L183" s="21"/>
       <c r="M183" s="21"/>
@@ -13322,7 +13301,7 @@
         <v>780</v>
       </c>
       <c r="K184" s="21" t="s">
-        <v>864</v>
+        <v>790</v>
       </c>
       <c r="L184" s="21"/>
       <c r="M184" s="21"/>
@@ -13362,8 +13341,8 @@
       <c r="J185" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K185" s="59" t="s">
-        <v>864</v>
+      <c r="K185" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L185" s="21"/>
       <c r="M185" s="21"/>
@@ -13403,8 +13382,8 @@
       <c r="J186" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K186" s="59" t="s">
-        <v>864</v>
+      <c r="K186" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L186" s="21"/>
       <c r="M186" s="21"/>
@@ -13441,13 +13420,13 @@
         <v>45440</v>
       </c>
       <c r="G187" s="61" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="H187" s="61" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="I187" s="61" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="J187" s="21" t="s">
         <v>93</v>
@@ -13461,7 +13440,7 @@
         <v>93</v>
       </c>
       <c r="O187" s="59" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="P187" s="21" t="s">
         <v>780</v>
@@ -13473,7 +13452,7 @@
         <v>93</v>
       </c>
       <c r="S187" s="59" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="T187" s="21"/>
       <c r="U187" s="22"/>
@@ -13505,8 +13484,8 @@
       <c r="J188" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K188" s="59" t="s">
-        <v>864</v>
+      <c r="K188" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L188" s="21"/>
       <c r="M188" s="21"/>
@@ -13546,8 +13525,8 @@
       <c r="J189" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K189" s="59" t="s">
-        <v>864</v>
+      <c r="K189" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L189" s="21"/>
       <c r="M189" s="21"/>
@@ -13587,8 +13566,8 @@
       <c r="J190" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K190" s="59" t="s">
-        <v>864</v>
+      <c r="K190" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L190" s="21"/>
       <c r="M190" s="21"/>
@@ -13628,8 +13607,8 @@
       <c r="J191" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K191" s="59" t="s">
-        <v>864</v>
+      <c r="K191" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L191" s="21"/>
       <c r="M191" s="21"/>
@@ -13669,8 +13648,8 @@
       <c r="J192" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K192" s="59" t="s">
-        <v>864</v>
+      <c r="K192" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L192" s="21"/>
       <c r="M192" s="21"/>
@@ -13710,8 +13689,8 @@
       <c r="J193" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K193" s="59" t="s">
-        <v>864</v>
+      <c r="K193" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L193" s="21"/>
       <c r="M193" s="21"/>
@@ -17929,13 +17908,13 @@
         <v>45481</v>
       </c>
       <c r="G307" s="20" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="H307" s="20" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I307" s="20" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="J307" s="21" t="s">
         <v>93</v>
@@ -17976,13 +17955,13 @@
         <v>45481</v>
       </c>
       <c r="G308" s="20" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="H308" s="20" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="I308" s="20" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="J308" s="21" t="s">
         <v>93</v>
@@ -18023,13 +18002,13 @@
         <v>45481</v>
       </c>
       <c r="G309" s="20" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="H309" s="20" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="I309" s="20" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="J309" s="21" t="s">
         <v>93</v>
@@ -18070,13 +18049,13 @@
         <v>45481</v>
       </c>
       <c r="G310" s="20" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="H310" s="20" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="I310" s="20" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="J310" s="21" t="s">
         <v>93</v>
@@ -18117,13 +18096,13 @@
         <v>45481</v>
       </c>
       <c r="G311" s="20" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="H311" s="20" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="I311" s="20" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="J311" s="21" t="s">
         <v>93</v>
@@ -18164,13 +18143,13 @@
         <v>45439</v>
       </c>
       <c r="G312" s="61" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="H312" s="61" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="I312" s="61" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="J312" s="21" t="s">
         <v>93</v>
@@ -18211,13 +18190,13 @@
         <v>45439</v>
       </c>
       <c r="G313" s="61" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="H313" s="61" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="I313" s="61" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="J313" s="21" t="s">
         <v>93</v>
@@ -18258,13 +18237,13 @@
         <v>45482</v>
       </c>
       <c r="G314" s="20" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="H314" s="20" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="I314" s="20" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="J314" s="21" t="s">
         <v>93</v>
@@ -18305,10 +18284,10 @@
         <v>45482</v>
       </c>
       <c r="G315" s="20" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="H315" s="20" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="I315" s="20"/>
       <c r="J315" s="21" t="s">
@@ -18335,7 +18314,7 @@
         <v>93</v>
       </c>
       <c r="S315" s="59" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="T315" s="21"/>
       <c r="U315" s="22"/>
@@ -18364,13 +18343,13 @@
         <v>45482</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="H316" s="20" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="J316" s="21" t="s">
         <v>93</v>
@@ -18411,13 +18390,13 @@
         <v>45482</v>
       </c>
       <c r="G317" s="20" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="H317" s="20" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I317" s="20" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="J317" s="21" t="s">
         <v>93</v>
@@ -18458,13 +18437,13 @@
         <v>45482</v>
       </c>
       <c r="G318" s="20" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="H318" s="20" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J318" s="21" t="s">
         <v>93</v>
@@ -18508,8 +18487,8 @@
       <c r="J319" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K319" s="59" t="s">
-        <v>905</v>
+      <c r="K319" s="21" t="s">
+        <v>785</v>
       </c>
       <c r="L319" s="21"/>
       <c r="M319" s="21"/>
@@ -18549,8 +18528,8 @@
       <c r="J320" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K320" s="59" t="s">
-        <v>905</v>
+      <c r="K320" s="21" t="s">
+        <v>785</v>
       </c>
       <c r="L320" s="21"/>
       <c r="M320" s="21"/>
@@ -18590,8 +18569,8 @@
       <c r="J321" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K321" s="59" t="s">
-        <v>905</v>
+      <c r="K321" s="21" t="s">
+        <v>785</v>
       </c>
       <c r="L321" s="21"/>
       <c r="M321" s="21"/>
@@ -18631,8 +18610,8 @@
       <c r="J322" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K322" s="59" t="s">
-        <v>905</v>
+      <c r="K322" s="21" t="s">
+        <v>785</v>
       </c>
       <c r="L322" s="21"/>
       <c r="M322" s="21"/>
@@ -19708,8 +19687,8 @@
       <c r="J351" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K351" s="59" t="s">
-        <v>864</v>
+      <c r="K351" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L351" s="21"/>
       <c r="M351" s="21"/>
@@ -19749,8 +19728,8 @@
       <c r="J352" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K352" s="59" t="s">
-        <v>864</v>
+      <c r="K352" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L352" s="21"/>
       <c r="M352" s="21"/>
@@ -19790,8 +19769,8 @@
       <c r="J353" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K353" s="59" t="s">
-        <v>864</v>
+      <c r="K353" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L353" s="21"/>
       <c r="M353" s="21"/>
@@ -19831,8 +19810,8 @@
       <c r="J354" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="K354" s="59" t="s">
-        <v>864</v>
+      <c r="K354" s="21" t="s">
+        <v>790</v>
       </c>
       <c r="L354" s="21"/>
       <c r="M354" s="21"/>
@@ -20387,7 +20366,7 @@
         <v>45482</v>
       </c>
       <c r="G369" s="20" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="H369" s="20"/>
       <c r="I369" s="20"/>
@@ -20403,7 +20382,7 @@
         <v>93</v>
       </c>
       <c r="O369" s="21" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="P369" s="21" t="s">
         <v>780</v>
@@ -20415,7 +20394,7 @@
         <v>93</v>
       </c>
       <c r="S369" s="59" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="T369" s="21"/>
       <c r="U369" s="22"/>
@@ -20444,7 +20423,7 @@
         <v>45482</v>
       </c>
       <c r="G370" s="20" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="H370" s="20"/>
       <c r="I370" s="20"/>
@@ -20460,7 +20439,7 @@
         <v>93</v>
       </c>
       <c r="O370" s="21" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="P370" s="21" t="s">
         <v>780</v>
@@ -20472,7 +20451,7 @@
         <v>93</v>
       </c>
       <c r="S370" s="59" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="T370" s="21"/>
       <c r="U370" s="22"/>
@@ -20797,13 +20776,13 @@
         <v>45481</v>
       </c>
       <c r="G379" s="20" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H379" s="20" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="I379" s="20" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="J379" s="54" t="s">
         <v>93</v>
@@ -20847,8 +20826,8 @@
       <c r="J380" s="54" t="s">
         <v>780</v>
       </c>
-      <c r="K380" s="59" t="s">
-        <v>869</v>
+      <c r="K380" s="21" t="s">
+        <v>785</v>
       </c>
       <c r="L380" s="54"/>
       <c r="M380" s="54"/>
@@ -25575,7 +25554,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K176 K178 K180:K181 K184 K187 K194:K318 K323:K350 K355:K379</xm:sqref>
+          <xm:sqref>K10:K380</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28369,27 +28348,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="152ec67562f6729267530f2154e17cab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bea1cbc65ad49ac624eb199c90a8cd28" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -28647,32 +28605,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F090B6-07CB-41CE-9867-FFD42C97BE05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28689,4 +28643,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFDE095-75A7-462D-AA1D-76860C485B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A62749-CC60-459A-AF5D-037966C8F35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="1515" windowWidth="20160" windowHeight="9615" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4024,9 +4024,6 @@
     <t>subject_application_vendor: TS23 di Laura Livolsi</t>
   </si>
   <si>
-    <t>subject_application_version:  1.4.44</t>
-  </si>
-  <si>
     <t>Recupero certificati di firma e/o di autorizzazione, non riuscito riprovare più tardi. Se dovesse persistere chiamare help-desk</t>
   </si>
   <si>
@@ -4082,48 +4079,6 @@
   </si>
   <si>
     <t>Errore semantico. "[ERROR-50| Il valore dell'elemento effectiveTime/high : '20240528000000+0200' deve essere maggiore o uguale di quello di effectiveTime/low : '20240528173557+0200'.]"</t>
-  </si>
-  <si>
-    <t>2024-07-08T14:51:37Z</t>
-  </si>
-  <si>
-    <t>4ec68779ec6e5cf7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.cf9127938a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-08T14:55:53Z</t>
-  </si>
-  <si>
-    <t>5a53a2d2ccf5a2a9</t>
-  </si>
-  <si>
-    <t>2024-07-08T14:59:44Z</t>
-  </si>
-  <si>
-    <t>3f52c51af9e75633</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.b7cd430caa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-08T15:05:03Z</t>
-  </si>
-  <si>
-    <t>8eedc316927848af</t>
-  </si>
-  <si>
-    <t>bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.7c4fb4be07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-08T15:13:55Z</t>
-  </si>
-  <si>
-    <t>72707a773b7e92e2</t>
-  </si>
-  <si>
-    <t>bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.8c143fe1bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>2024-05-27T14:28:06Z</t>
@@ -4199,6 +4154,51 @@
   </si>
   <si>
     <t xml:space="preserve">L’errore viene segnalato a video all’utente finale, che può procedere alla correzione in autonomia o chiamera help-desk </t>
+  </si>
+  <si>
+    <t>eeb17ce29870b07a</t>
+  </si>
+  <si>
+    <t>2024-07-16T07:08:08Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.9d096f95f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7b00cbbff905c11b</t>
+  </si>
+  <si>
+    <t>2024-07-16T07:11:13Z</t>
+  </si>
+  <si>
+    <t>2024-07-16T07:23:18Z</t>
+  </si>
+  <si>
+    <t>12d855cbe0355cf8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.2f383071a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-07-16T08:08:57Z</t>
+  </si>
+  <si>
+    <t>6b59f246ad0ca35a</t>
+  </si>
+  <si>
+    <t>bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.460e558264^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-07-16T07:16:36Z</t>
+  </si>
+  <si>
+    <t>6e17b533dad9ae60</t>
+  </si>
+  <si>
+    <t>bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.248b8bb4a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>subject_application_version:  1.4.46</t>
   </si>
 </sst>
 </file>
@@ -6402,10 +6402,10 @@
   <dimension ref="A1:W968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G310" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B307" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K380" sqref="K380"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6530,7 +6530,7 @@
       <c r="A5" s="71"/>
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
-        <v>844</v>
+        <v>901</v>
       </c>
       <c r="D5" s="65"/>
       <c r="F5" s="12"/>
@@ -7708,13 +7708,13 @@
         <v>45446</v>
       </c>
       <c r="G37" s="61" t="s">
+        <v>847</v>
+      </c>
+      <c r="H37" s="61" t="s">
         <v>848</v>
       </c>
-      <c r="H37" s="61" t="s">
+      <c r="I37" s="61" t="s">
         <v>849</v>
-      </c>
-      <c r="I37" s="61" t="s">
-        <v>850</v>
       </c>
       <c r="J37" s="21" t="s">
         <v>93</v>
@@ -7728,7 +7728,7 @@
         <v>93</v>
       </c>
       <c r="O37" s="59" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P37" s="21" t="s">
         <v>93</v>
@@ -7740,7 +7740,7 @@
         <v>93</v>
       </c>
       <c r="S37" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="T37" s="21"/>
       <c r="U37" s="22"/>
@@ -8028,13 +8028,13 @@
         <v>45446</v>
       </c>
       <c r="G45" s="61" t="s">
+        <v>847</v>
+      </c>
+      <c r="H45" s="61" t="s">
         <v>848</v>
       </c>
-      <c r="H45" s="61" t="s">
+      <c r="I45" s="61" t="s">
         <v>849</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>850</v>
       </c>
       <c r="J45" s="21" t="s">
         <v>93</v>
@@ -8048,7 +8048,7 @@
         <v>93</v>
       </c>
       <c r="O45" s="59" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P45" s="21" t="s">
         <v>93</v>
@@ -8060,7 +8060,7 @@
         <v>93</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="T45" s="21"/>
       <c r="U45" s="22"/>
@@ -8366,7 +8366,7 @@
         <v>93</v>
       </c>
       <c r="O53" s="59" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P53" s="21" t="s">
         <v>780</v>
@@ -8378,7 +8378,7 @@
         <v>93</v>
       </c>
       <c r="S53" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="T53" s="21"/>
       <c r="U53" s="22" t="s">
@@ -13093,13 +13093,13 @@
         <v>45440</v>
       </c>
       <c r="G180" s="61" t="s">
+        <v>850</v>
+      </c>
+      <c r="H180" s="61" t="s">
         <v>851</v>
       </c>
-      <c r="H180" s="61" t="s">
+      <c r="I180" s="61" t="s">
         <v>852</v>
-      </c>
-      <c r="I180" s="61" t="s">
-        <v>853</v>
       </c>
       <c r="J180" s="21" t="s">
         <v>93</v>
@@ -13113,7 +13113,7 @@
         <v>93</v>
       </c>
       <c r="O180" s="59" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="P180" s="21" t="s">
         <v>780</v>
@@ -13125,7 +13125,7 @@
         <v>93</v>
       </c>
       <c r="S180" s="59" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="T180" s="21"/>
       <c r="U180" s="22"/>
@@ -13154,13 +13154,13 @@
         <v>45441</v>
       </c>
       <c r="G181" s="61" t="s">
+        <v>855</v>
+      </c>
+      <c r="H181" s="61" t="s">
         <v>856</v>
       </c>
-      <c r="H181" s="61" t="s">
+      <c r="I181" s="61" t="s">
         <v>857</v>
-      </c>
-      <c r="I181" s="61" t="s">
-        <v>858</v>
       </c>
       <c r="J181" s="21" t="s">
         <v>93</v>
@@ -13174,7 +13174,7 @@
         <v>93</v>
       </c>
       <c r="O181" s="59" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="P181" s="21" t="s">
         <v>780</v>
@@ -13186,7 +13186,7 @@
         <v>93</v>
       </c>
       <c r="S181" s="59" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="T181" s="21"/>
       <c r="U181" s="22"/>
@@ -13420,13 +13420,13 @@
         <v>45440</v>
       </c>
       <c r="G187" s="61" t="s">
+        <v>859</v>
+      </c>
+      <c r="H187" s="61" t="s">
         <v>860</v>
       </c>
-      <c r="H187" s="61" t="s">
+      <c r="I187" s="61" t="s">
         <v>861</v>
-      </c>
-      <c r="I187" s="61" t="s">
-        <v>862</v>
       </c>
       <c r="J187" s="21" t="s">
         <v>93</v>
@@ -13440,7 +13440,7 @@
         <v>93</v>
       </c>
       <c r="O187" s="59" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="P187" s="21" t="s">
         <v>780</v>
@@ -13452,7 +13452,7 @@
         <v>93</v>
       </c>
       <c r="S187" s="59" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="T187" s="21"/>
       <c r="U187" s="22"/>
@@ -17905,16 +17905,16 @@
         <v>594</v>
       </c>
       <c r="F307" s="19">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G307" s="20" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="H307" s="20" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
       <c r="I307" s="20" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="J307" s="21" t="s">
         <v>93</v>
@@ -17952,16 +17952,16 @@
         <v>596</v>
       </c>
       <c r="F308" s="19">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G308" s="20" t="s">
-        <v>869</v>
+        <v>892</v>
       </c>
       <c r="H308" s="20" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="I308" s="20" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
       <c r="J308" s="21" t="s">
         <v>93</v>
@@ -17999,16 +17999,16 @@
         <v>598</v>
       </c>
       <c r="F309" s="19">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G309" s="20" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="H309" s="20" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
       <c r="I309" s="20" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="J309" s="21" t="s">
         <v>93</v>
@@ -18046,16 +18046,16 @@
         <v>600</v>
       </c>
       <c r="F310" s="19">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G310" s="20" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="H310" s="20" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="I310" s="20" t="s">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="J310" s="21" t="s">
         <v>93</v>
@@ -18093,16 +18093,16 @@
         <v>602</v>
       </c>
       <c r="F311" s="19">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G311" s="20" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="H311" s="20" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
       <c r="I311" s="20" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="J311" s="21" t="s">
         <v>93</v>
@@ -18143,13 +18143,13 @@
         <v>45439</v>
       </c>
       <c r="G312" s="61" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="H312" s="61" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="I312" s="61" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="J312" s="21" t="s">
         <v>93</v>
@@ -18190,13 +18190,13 @@
         <v>45439</v>
       </c>
       <c r="G313" s="61" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="H313" s="61" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="I313" s="61" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="J313" s="21" t="s">
         <v>93</v>
@@ -18237,13 +18237,13 @@
         <v>45482</v>
       </c>
       <c r="G314" s="20" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="H314" s="20" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="I314" s="20" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="J314" s="21" t="s">
         <v>93</v>
@@ -18284,10 +18284,10 @@
         <v>45482</v>
       </c>
       <c r="G315" s="20" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="H315" s="20" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="I315" s="20"/>
       <c r="J315" s="21" t="s">
@@ -18302,7 +18302,7 @@
         <v>93</v>
       </c>
       <c r="O315" s="21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P315" s="21" t="s">
         <v>780</v>
@@ -18314,7 +18314,7 @@
         <v>93</v>
       </c>
       <c r="S315" s="59" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="T315" s="21"/>
       <c r="U315" s="22"/>
@@ -18343,13 +18343,13 @@
         <v>45482</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="H316" s="20" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="J316" s="21" t="s">
         <v>93</v>
@@ -18390,13 +18390,13 @@
         <v>45482</v>
       </c>
       <c r="G317" s="20" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="H317" s="20" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="I317" s="20" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="J317" s="21" t="s">
         <v>93</v>
@@ -18437,13 +18437,13 @@
         <v>45482</v>
       </c>
       <c r="G318" s="20" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="H318" s="20" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="J318" s="21" t="s">
         <v>93</v>
@@ -20366,7 +20366,7 @@
         <v>45482</v>
       </c>
       <c r="G369" s="20" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="H369" s="20"/>
       <c r="I369" s="20"/>
@@ -20382,7 +20382,7 @@
         <v>93</v>
       </c>
       <c r="O369" s="21" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="P369" s="21" t="s">
         <v>780</v>
@@ -20394,7 +20394,7 @@
         <v>93</v>
       </c>
       <c r="S369" s="59" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="T369" s="21"/>
       <c r="U369" s="22"/>
@@ -20423,7 +20423,7 @@
         <v>45482</v>
       </c>
       <c r="G370" s="20" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="H370" s="20"/>
       <c r="I370" s="20"/>
@@ -20439,7 +20439,7 @@
         <v>93</v>
       </c>
       <c r="O370" s="21" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="P370" s="21" t="s">
         <v>780</v>
@@ -20451,7 +20451,7 @@
         <v>93</v>
       </c>
       <c r="S370" s="59" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="T370" s="21"/>
       <c r="U370" s="22"/>
@@ -20773,16 +20773,16 @@
         <v>834</v>
       </c>
       <c r="F379" s="52">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G379" s="20" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="H379" s="20" t="s">
-        <v>865</v>
+        <v>887</v>
       </c>
       <c r="I379" s="20" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="J379" s="54" t="s">
         <v>93</v>
@@ -28348,6 +28348,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="152ec67562f6729267530f2154e17cab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bea1cbc65ad49ac624eb199c90a8cd28" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -28605,28 +28626,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F090B6-07CB-41CE-9867-FFD42C97BE05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28643,29 +28668,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A62749-CC60-459A-AF5D-037966C8F35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB37878-AB0A-4C1F-ADCE-A50075742833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="1515" windowWidth="20160" windowHeight="9615" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="1635" windowWidth="19560" windowHeight="9495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="901">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4156,30 +4156,6 @@
     <t xml:space="preserve">L’errore viene segnalato a video all’utente finale, che può procedere alla correzione in autonomia o chiamera help-desk </t>
   </si>
   <si>
-    <t>eeb17ce29870b07a</t>
-  </si>
-  <si>
-    <t>2024-07-16T07:08:08Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.9d096f95f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7b00cbbff905c11b</t>
-  </si>
-  <si>
-    <t>2024-07-16T07:11:13Z</t>
-  </si>
-  <si>
-    <t>2024-07-16T07:23:18Z</t>
-  </si>
-  <si>
-    <t>12d855cbe0355cf8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.2f383071a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-07-16T08:08:57Z</t>
   </si>
   <si>
@@ -4199,6 +4175,27 @@
   </si>
   <si>
     <t>subject_application_version:  1.4.46</t>
+  </si>
+  <si>
+    <t>2024-07-18T12:58:11Z</t>
+  </si>
+  <si>
+    <t>2c72eef492670982</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.439d4ca808^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>00620de68d44c090</t>
+  </si>
+  <si>
+    <t>2024-07-18T13:30:58Z</t>
+  </si>
+  <si>
+    <t>a1b3fbec5e42ed68</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.106b8e4912^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -6402,10 +6399,10 @@
   <dimension ref="A1:W968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B307" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:D4"/>
+      <selection pane="bottomRight" activeCell="I308" sqref="I308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6530,7 +6527,7 @@
       <c r="A5" s="71"/>
       <c r="B5" s="72"/>
       <c r="C5" s="73" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="D5" s="65"/>
       <c r="F5" s="12"/>
@@ -17905,16 +17902,16 @@
         <v>594</v>
       </c>
       <c r="F307" s="19">
-        <v>45489</v>
+        <v>45491</v>
       </c>
       <c r="G307" s="20" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="H307" s="20" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="I307" s="20" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="J307" s="21" t="s">
         <v>93</v>
@@ -17952,16 +17949,16 @@
         <v>596</v>
       </c>
       <c r="F308" s="19">
-        <v>45489</v>
+        <v>45491</v>
       </c>
       <c r="G308" s="20" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="H308" s="20" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="I308" s="20" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="J308" s="21" t="s">
         <v>93</v>
@@ -18002,13 +17999,13 @@
         <v>45489</v>
       </c>
       <c r="G309" s="20" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="H309" s="20" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="I309" s="20" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="J309" s="21" t="s">
         <v>93</v>
@@ -18049,13 +18046,13 @@
         <v>45489</v>
       </c>
       <c r="G310" s="20" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="H310" s="20" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="I310" s="20" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="J310" s="21" t="s">
         <v>93</v>
@@ -18096,13 +18093,13 @@
         <v>45489</v>
       </c>
       <c r="G311" s="20" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="H311" s="20" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="I311" s="20" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="J311" s="21" t="s">
         <v>93</v>
@@ -20773,16 +20770,16 @@
         <v>834</v>
       </c>
       <c r="F379" s="52">
-        <v>45489</v>
+        <v>45491</v>
       </c>
       <c r="G379" s="20" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="H379" s="20" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="I379" s="20" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="J379" s="54" t="s">
         <v>93</v>
@@ -28348,27 +28345,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="152ec67562f6729267530f2154e17cab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bea1cbc65ad49ac624eb199c90a8cd28" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -28626,32 +28602,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F090B6-07CB-41CE-9867-FFD42C97BE05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28668,4 +28640,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Sviluppo\FSE\Test x validazione\Validazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\TServe\Accreditamento bis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB37878-AB0A-4C1F-ADCE-A50075742833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E481DE-C03B-4C9A-9F81-44E5AC7BA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1635" windowWidth="19560" windowHeight="9495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -6399,10 +6399,10 @@
   <dimension ref="A1:W968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I308" sqref="I308"/>
+      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25539,7 +25539,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J36 M10:N36 P10:R36 J38 M38:N38 P38:R38 J40:J44 M40:N44 P40:R44 J46 M46:N46 P46:R46 J48:J52 M48:N52 P48:R52 P54:R194 J371:J380 J54:J194 P371:R380 M371:N380 M54:N194</xm:sqref>
+          <xm:sqref>M10:N36 P10:R36 J10:J38 M38:N38 P38:R38 M40:N44 P40:R44 J40:J46 M46:N46 P46:R46 J371:J380 P371:R380 M371:N380 J48:J194 M48:N194 P48:R194</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
